--- a/CEMFC/baselines/baseline_modules_US.xlsx
+++ b/CEMFC/baselines/baseline_modules_US.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayala\Documents\GitHub\CircularEconomy-MassFlowCalculator\CEMFC\baselines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blond\Documents\GitHub\CircularEconomy-MassFlowCalculator\CEMFC\baselines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFB24F7-624D-4159-AC06-ACCE07F341DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDCE2F4-6259-42AA-B29A-5332E6E0BB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{72DD8B25-5CFD-4A11-84C1-6FB45BC6770F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{72DD8B25-5CFD-4A11-84C1-6FB45BC6770F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC76E6C-6AAC-42FD-9645-31F79228663A}">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +637,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="5">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G3" s="5">
         <v>95</v>
@@ -672,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="5">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G4" s="5">
         <v>95</v>
@@ -707,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="5">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G5" s="5">
         <v>95</v>
@@ -742,7 +742,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="5">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G6" s="5">
         <v>95</v>
@@ -777,7 +777,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="5">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G7" s="5">
         <v>95</v>
@@ -812,7 +812,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G8" s="5">
         <v>95</v>
@@ -847,7 +847,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G9" s="5">
         <v>95</v>
@@ -882,7 +882,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G10" s="5">
         <v>95</v>
@@ -917,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G11" s="5">
         <v>96</v>
@@ -952,7 +952,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G12" s="5">
         <v>96</v>
@@ -987,7 +987,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G13" s="5">
         <v>96</v>
@@ -1022,7 +1022,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G14" s="5">
         <v>96</v>
@@ -1057,7 +1057,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G15" s="5">
         <v>96</v>
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G16" s="5">
         <v>96</v>
@@ -1127,7 +1127,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G17" s="5">
         <v>96</v>
@@ -1162,7 +1162,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G18" s="5">
         <v>97</v>
@@ -1197,7 +1197,7 @@
         <v>27</v>
       </c>
       <c r="F19" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G19" s="5">
         <v>97</v>
@@ -1232,7 +1232,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G20" s="5">
         <v>97</v>
@@ -1267,7 +1267,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G21" s="5">
         <v>97</v>
@@ -1302,7 +1302,7 @@
         <v>30</v>
       </c>
       <c r="F22" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G22" s="5">
         <v>97</v>
@@ -1337,7 +1337,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G23" s="5">
         <v>97</v>
@@ -1372,7 +1372,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G24" s="5">
         <v>97</v>
@@ -1407,7 +1407,7 @@
         <v>30</v>
       </c>
       <c r="F25" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G25" s="5">
         <v>97</v>
@@ -1442,7 +1442,7 @@
         <v>30</v>
       </c>
       <c r="F26" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G26" s="5">
         <v>97</v>
@@ -1477,7 +1477,7 @@
         <v>30</v>
       </c>
       <c r="F27" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G27" s="5">
         <v>97</v>

--- a/CEMFC/baselines/baseline_modules_US.xlsx
+++ b/CEMFC/baselines/baseline_modules_US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blond\Documents\GitHub\CircularEconomy-MassFlowCalculator\CEMFC\baselines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDCE2F4-6259-42AA-B29A-5332E6E0BB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80C88E9-85F7-40B0-9DE9-D5EBF0F47735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{72DD8B25-5CFD-4A11-84C1-6FB45BC6770F}"/>
+    <workbookView xWindow="1900" yWindow="1780" windowWidth="14400" windowHeight="7360" xr2:uid="{72DD8B25-5CFD-4A11-84C1-6FB45BC6770F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,18 +535,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC76E6C-6AAC-42FD-9645-31F79228663A}">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="8" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="8" max="9" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -581,7 +581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +620,7 @@
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>1995</v>
       </c>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>1996</v>
       </c>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1997</v>
       </c>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>1998</v>
       </c>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>1999</v>
       </c>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>2000</v>
       </c>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>2001</v>
       </c>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>2002</v>
       </c>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>2003</v>
       </c>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>2004</v>
       </c>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>2005</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>2006</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>2007</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>2008</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>2009</v>
       </c>
@@ -1145,12 +1145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>2010</v>
       </c>
-      <c r="B18" s="4">
-        <v>849</v>
+      <c r="B18">
+        <v>848.58796062499994</v>
       </c>
       <c r="C18" s="4">
         <v>18.04</v>
@@ -1180,12 +1180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>2011</v>
       </c>
-      <c r="B19" s="4">
-        <v>1921</v>
+      <c r="B19">
+        <v>1920.5102044019995</v>
       </c>
       <c r="C19" s="4">
         <v>18.45</v>
@@ -1215,12 +1215,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>2012</v>
       </c>
-      <c r="B20" s="4">
-        <v>3373</v>
+      <c r="B20">
+        <v>3373.426607067242</v>
       </c>
       <c r="C20" s="4">
         <v>19.2</v>
@@ -1250,12 +1250,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>2013</v>
       </c>
-      <c r="B21" s="4">
-        <v>4766</v>
+      <c r="B21">
+        <v>4765.8020300921853</v>
       </c>
       <c r="C21" s="4">
         <v>19.89</v>
@@ -1285,12 +1285,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>2014</v>
       </c>
-      <c r="B22" s="4">
-        <v>6244</v>
+      <c r="B22">
+        <v>6243.8733043840903</v>
       </c>
       <c r="C22" s="4">
         <v>20.2</v>
@@ -1320,12 +1320,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>2015</v>
       </c>
-      <c r="B23" s="4">
-        <v>7501</v>
+      <c r="B23">
+        <v>7500.6418866184267</v>
       </c>
       <c r="C23" s="4">
         <v>20.75</v>
@@ -1355,12 +1355,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>2016</v>
       </c>
-      <c r="B24" s="4">
-        <v>15152</v>
+      <c r="B24">
+        <v>15095.640009350134</v>
       </c>
       <c r="C24" s="4">
         <v>21.2</v>
@@ -1390,12 +1390,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>2017</v>
       </c>
-      <c r="B25" s="4">
-        <v>10845</v>
+      <c r="B25">
+        <v>10969.094662673107</v>
       </c>
       <c r="C25" s="4">
         <v>22.9</v>
@@ -1425,12 +1425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>2018</v>
       </c>
-      <c r="B26" s="4">
-        <v>10790</v>
+      <c r="B26">
+        <v>10740.376011385799</v>
       </c>
       <c r="C26" s="4">
         <v>23.2</v>
@@ -1460,12 +1460,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>2019</v>
       </c>
-      <c r="B27" s="4">
-        <v>13351.83</v>
+      <c r="B27">
+        <v>13385.895329422578</v>
       </c>
       <c r="C27" s="7">
         <v>23.51</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>2020</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>2021</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>2022</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>2023</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>2024</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>2025</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>2026</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>2027</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>2028</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>2029</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>2030</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>2031</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>2032</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>2033</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>2034</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>2035</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>2036</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>2037</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>2038</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>2039</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>2040</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>2041</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>2042</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
         <v>2043</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>2044</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>2045</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>2046</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>2047</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>2048</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>2049</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>2050</v>
       </c>
